--- a/i_codebooks/D3_cohort_{ImmDis}.xlsx
+++ b/i_codebooks/D3_cohort_{ImmDis}.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -27,20 +27,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="85">
   <si>
     <t>metadata_content</t>
   </si>
   <si>
-    <t>Total persons in the data instance</t>
-  </si>
-  <si>
-    <t>Exit from data source before 1 Jan 2017</t>
-  </si>
-  <si>
-    <t>Sex or birth year missing or absurd or no dates of entry or exit</t>
-  </si>
-  <si>
     <t>Varname</t>
   </si>
   <si>
@@ -119,73 +110,6 @@
     <t>notes</t>
   </si>
   <si>
-    <t>n_1_</t>
-  </si>
-  <si>
-    <t>ds</t>
-  </si>
-  <si>
-    <t>n_2_</t>
-  </si>
-  <si>
-    <t>p_2_</t>
-  </si>
-  <si>
-    <t>1 decimal point</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>n_3_</t>
-  </si>
-  <si>
-    <t>p_3</t>
-  </si>
-  <si>
-    <t>n_4_</t>
-  </si>
-  <si>
-    <t>p_4_</t>
-  </si>
-  <si>
-    <t>n_5_</t>
-  </si>
-  <si>
-    <t>n_2 as a % of the total persons in the data instance</t>
-  </si>
-  <si>
-    <t>BIFAP_PC
-BIFAP_PC_HOSP
-SIDIAP
-VID
-EPICHRON
-PEDIANET
-DNR
-NNR
-FHR
-SNDS
-CPRD</t>
-  </si>
-  <si>
-    <t>data source name, as stored in CDM_SOURCE, plus possible specification of subpopulation</t>
-  </si>
-  <si>
-    <t>No first {ImmDis}  disease codes identified after 1 Jan 2017</t>
-  </si>
-  <si>
-    <t>Less than 365 days look-back at first identification of {ImmDis}, for those not born in the study period</t>
-  </si>
-  <si>
-    <t>round(100*n_2_/n_1_,.1)</t>
-  </si>
-  <si>
-    <t>round(100*n_3_/n_1_,.1)</t>
-  </si>
-  <si>
-    <t>round(100*n_4_/n_1_,.1)</t>
-  </si>
-  <si>
     <t>immune_diseases_in_the_study</t>
   </si>
   <si>
@@ -217,9 +141,6 @@
   </si>
   <si>
     <t>Autoimmune hepatitis</t>
-  </si>
-  <si>
-    <t>n_3 as a % of the total persons in the data instance</t>
   </si>
   <si>
     <t>D3_cohort_{ImmDis}</t>
@@ -254,11 +175,6 @@
   </si>
   <si>
     <t>date when the person is first found with {ImmDis}</t>
-  </si>
-  <si>
-    <t>if  entering_follow_up_{ImmDis} == 1:
-cohort_entry_date_{ImmDis} + 90
-otherwise: null</t>
   </si>
   <si>
     <t xml:space="preserve">whether the person enters follow up </t>
@@ -358,6 +274,24 @@
   </si>
   <si>
     <t>ImmDis comp{ImmDis}</t>
+  </si>
+  <si>
+    <t>entering_follow_up_postponed_{ImmDis}</t>
+  </si>
+  <si>
+    <t>if the person is vaccinated during the first 9'0 days after cohort_entry_date, then their entry is potsponed to 90 days after the vaccination (if vaccinated more than once in a 90-days window, the computation of 90 days is restarted)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cohort_entry_date_{ImmDis} &amp; if cause_for_not_entering_followup_{ImmDis} == 0 and exists vaccine_date &gt;=  cohort_entry_date_{ImmDis} &amp; vaccine_date &lt;= cohort_entry_date_{ImmDis} +90 then 1
+0 otherwise
+</t>
+  </si>
+  <si>
+    <t>if  entering_follow_up_{ImmDis} == 1 &amp; entering_follow_up_postponed_{ImmDis} == 0:
+cohort_entry_date_{ImmDis} + 90
+otehwrsie if entering_follow_up_{ImmDis} == 1 &amp; entering_follow_up_postponed_{ImmDis} == 1:
+date of last vasscine in window of 90 days + 90
+otherwise: null</t>
   </si>
 </sst>
 </file>
@@ -409,18 +343,9 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF595959"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -445,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -458,28 +383,20 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -763,7 +680,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -774,7 +691,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -782,74 +699,74 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6">
+        <v>17</v>
+      </c>
+      <c r="B6" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7">
+        <v>18</v>
+      </c>
+      <c r="B7" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -860,21 +777,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20:F21"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="55.33203125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="56.33203125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="56.33203125" style="10" customWidth="1"/>
     <col min="3" max="3" width="28.6640625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="36.5546875" style="9" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5546875" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.109375" style="9" bestFit="1" customWidth="1"/>
@@ -887,254 +804,169 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="L1" s="8"/>
     </row>
-    <row r="2" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
+      <c r="H2" s="9" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>1</v>
+        <v>43</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="144" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>41</v>
+        <v>47</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>60</v>
+      <c r="B7" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="12" t="s">
         <v>44</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>45</v>
+        <v>54</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="144" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1147,8 +979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1161,266 +993,266 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="D18" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D20" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="D21" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/i_codebooks/D3_cohort_{ImmDis}.xlsx
+++ b/i_codebooks/D3_cohort_{ImmDis}.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Parameters" sheetId="5" r:id="rId3"/>
     <sheet name="Example" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="109">
   <si>
     <t>metadata_content</t>
   </si>
@@ -175,9 +175,6 @@
   </si>
   <si>
     <t>date when the person is first found with {ImmDis}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">whether the person enters follow up </t>
   </si>
   <si>
     <t>yes</t>
@@ -195,15 +192,6 @@
     <t>int</t>
   </si>
   <si>
-    <t>entering_follow_up_{ImmDis}_COMP_{comp{ImmDis}}</t>
-  </si>
-  <si>
-    <t>cohort_entry_date_{ImmDis}_COMP_{comp{ImmDis}}</t>
-  </si>
-  <si>
-    <t>start_follow_up_{ImmDis}_COMP_{comp{ImmDis}}</t>
-  </si>
-  <si>
     <t>ImmDis</t>
   </si>
   <si>
@@ -240,40 +228,7 @@
     <t>study_exit_date</t>
   </si>
   <si>
-    <t>comp[["E_GRAVES_AESI"]]</t>
-  </si>
-  <si>
-    <t>comp[["E_GRAVES_AESI"]][1]</t>
-  </si>
-  <si>
-    <t>comp[["E_GRAVES_AESI"]][2]</t>
-  </si>
-  <si>
-    <t>comp[["E_GRAVES_AESI"]][3]</t>
-  </si>
-  <si>
-    <t>comp[["E_GRAVES_AESI"]][4]</t>
-  </si>
-  <si>
-    <t>comp[["E_GRAVES_AESI"]][5]</t>
-  </si>
-  <si>
-    <t>comp[["E_GRAVES_AESI"]][6]</t>
-  </si>
-  <si>
     <t>…</t>
-  </si>
-  <si>
-    <t>comp[["D_HEPATITISAUTOIMMUNE_AESI"]][1]</t>
-  </si>
-  <si>
-    <t>comp[["D_HEPATITISAUTOIMMUNE_AESI"]]</t>
-  </si>
-  <si>
-    <t>comp[["D_HEPATITISAUTOIMMUNE_AESI"]][2]</t>
-  </si>
-  <si>
-    <t>ImmDis comp{ImmDis}</t>
   </si>
   <si>
     <t>entering_follow_up_postponed_{ImmDis}</t>
@@ -292,6 +247,123 @@
 otehwrsie if entering_follow_up_{ImmDis} == 1 &amp; entering_follow_up_postponed_{ImmDis} == 1:
 date of last vasscine in window of 90 days + 90
 otherwise: null</t>
+  </si>
+  <si>
+    <t>P01</t>
+  </si>
+  <si>
+    <t>cohort_entry_date_{ImmDis}_{group_of_prompt}</t>
+  </si>
+  <si>
+    <t>group_of_prompt</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>HOSP_SPEC_DISP</t>
+  </si>
+  <si>
+    <t>groups_of_prompts</t>
+  </si>
+  <si>
+    <t>HOSP_DISP</t>
+  </si>
+  <si>
+    <t>07_algorithms</t>
+  </si>
+  <si>
+    <t>whether the person enters follow up of {ImmDis} when the prompts are restricted to {group_of_prompt}</t>
+  </si>
+  <si>
+    <t>entering_follow_up_{ImmDis}_{group_of_prompt}</t>
+  </si>
+  <si>
+    <t>start_follow_up_{ImmDis}_{group_of_prompt}</t>
+  </si>
+  <si>
+    <t>date when the person enters the follow up for {ImmDis}</t>
+  </si>
+  <si>
+    <t>whether the person enters follow up for {ImmDis}</t>
+  </si>
+  <si>
+    <t>date when the person enters the follow up for {ImmDis}  when the prompts are restricted to {group_of_prompt}</t>
+  </si>
+  <si>
+    <t>date when the person is first found for {ImmDis} when the prompts are restricted to {group_of_prompt}</t>
+  </si>
+  <si>
+    <t>reason why the persons does not enter follow up (if any)  when the prompts are restricted to {group_of_prompt}</t>
+  </si>
+  <si>
+    <t>if the person is vaccinated during the first 9'0 days after cohort_entry_date, then  their entry is potsponed to 90 days after the vaccination (if vaccinated more than once in a 90-days window, the computation of 90 days is restarted)</t>
+  </si>
+  <si>
+    <t>ImmDis group_of_prompt</t>
+  </si>
+  <si>
+    <t>cohort_entry_date_E_GRAVES_AESI</t>
+  </si>
+  <si>
+    <t>cause_for_not_entering_followup_E_GRAVES_AESI</t>
+  </si>
+  <si>
+    <t>entering_follow_up_postponed_E_GRAVES_AESI</t>
+  </si>
+  <si>
+    <t>entering_follow_up_E_GRAVES_AESI</t>
+  </si>
+  <si>
+    <t>start_follow_up_E_GRAVES_AESI</t>
+  </si>
+  <si>
+    <t>cohort_entry_date_E_GRAVES_AESI_PC</t>
+  </si>
+  <si>
+    <t>entering_follow_up_E_GRAVES_AESI_PC</t>
+  </si>
+  <si>
+    <t>start_follow_up_E_GRAVES_AESI_PC</t>
+  </si>
+  <si>
+    <t>cohort_entry_date_E_GRAVES_AESI_HOSP_DISP</t>
+  </si>
+  <si>
+    <t>cause_for_not_entering_followup_E_GRAVES_AESI_HOSP_DISP</t>
+  </si>
+  <si>
+    <t>entering_follow_up_postponed_E_GRAVES_AESI_HOSP_DISP</t>
+  </si>
+  <si>
+    <t>entering_follow_up_E_GRAVES_AESI_HOSP_DISP</t>
+  </si>
+  <si>
+    <t>start_follow_up_E_GRAVES_AESI_HOSP_DISP</t>
+  </si>
+  <si>
+    <t>cohort_entry_date_E_GRAVES_AESI_HOSP_SPEC_DISP</t>
+  </si>
+  <si>
+    <t>entering_follow_up_E_GRAVES_AESI_HOSP_SPEC_DISP</t>
+  </si>
+  <si>
+    <t>start_follow_up_E_GRAVES_AESI_HOSP_SPEC_DISP</t>
+  </si>
+  <si>
+    <t>cause_for_not_entering_followup_E_GRAVES_AESI_PC</t>
+  </si>
+  <si>
+    <t>entering_follow_up_postponed_E_GRAVES_AESI_PC</t>
+  </si>
+  <si>
+    <t>cause_for_not_entering_followup_E_GRAVES_AESI_HOSP_SPEC_DISP</t>
+  </si>
+  <si>
+    <t>entering_follow_up_postponed_E_GRAVES_AESI_HOSP_SPEC_DISP</t>
+  </si>
+  <si>
+    <t>for some data sources, some groups may be not caculated; for TEST only PC and HOSP_DISP are calculates</t>
   </si>
 </sst>
 </file>
@@ -370,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -397,6 +469,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -680,7 +758,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -766,7 +844,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -777,13 +855,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9:A11"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -843,7 +921,7 @@
         <v>42</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -854,61 +932,61 @@
         <v>48</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="144" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>57</v>
-      </c>
       <c r="I5" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>45</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -916,57 +994,103 @@
         <v>46</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>45</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="B8" s="10" t="s">
+        <v>81</v>
+      </c>
       <c r="F8" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>55</v>
-      </c>
       <c r="F9" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>80</v>
+      <c r="B13" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -979,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -989,6 +1113,7 @@
     <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.44140625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -1007,16 +1132,16 @@
       <c r="E1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -1027,10 +1152,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -1041,10 +1166,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
@@ -1055,10 +1180,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
         <v>57</v>
-      </c>
-      <c r="B5" t="s">
-        <v>61</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -1069,10 +1194,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
@@ -1083,10 +1208,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
@@ -1097,10 +1222,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
         <v>34</v>
@@ -1111,10 +1236,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
         <v>35</v>
@@ -1125,10 +1250,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
         <v>36</v>
@@ -1139,10 +1264,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
@@ -1151,108 +1276,80 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="E12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
         <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="E13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="E14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>73</v>
-      </c>
       <c r="B15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>74</v>
-      </c>
       <c r="B16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>75</v>
-      </c>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>76</v>
-      </c>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>76</v>
-      </c>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1262,18 +1359,149 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="82.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="17" width="8.6640625" style="12"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="12">
+        <v>100</v>
+      </c>
+      <c r="C2" s="12">
+        <v>730</v>
+      </c>
+      <c r="D2" s="12">
+        <v>0</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0</v>
+      </c>
+      <c r="F2" s="12">
+        <v>1</v>
+      </c>
+      <c r="G2" s="12">
+        <v>190</v>
+      </c>
+      <c r="H2" s="12">
+        <v>150</v>
+      </c>
+      <c r="I2" s="12">
+        <v>0</v>
+      </c>
+      <c r="J2" s="12">
+        <v>0</v>
+      </c>
+      <c r="K2" s="12">
+        <v>1</v>
+      </c>
+      <c r="L2" s="12">
+        <v>240</v>
+      </c>
+      <c r="M2" s="12">
+        <v>100</v>
+      </c>
+      <c r="N2" s="12">
+        <v>0</v>
+      </c>
+      <c r="O2" s="12">
+        <v>0</v>
+      </c>
+      <c r="P2" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="12">
+        <v>190</v>
+      </c>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/i_codebooks/D3_cohort_{ImmDis}.xlsx
+++ b/i_codebooks/D3_cohort_{ImmDis}.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="145">
   <si>
     <t>metadata_content</t>
   </si>
@@ -144,9 +144,6 @@
   </si>
   <si>
     <t>D3_cohort_{ImmDis}</t>
-  </si>
-  <si>
-    <t>Persons that are in the cohort of {ImmDis}, with date of entrance, and possible inclusion in subcohorts (per component)</t>
   </si>
   <si>
     <t>itself</t>
@@ -232,9 +229,6 @@
   </si>
   <si>
     <t>entering_follow_up_postponed_{ImmDis}</t>
-  </si>
-  <si>
-    <t>if the person is vaccinated during the first 9'0 days after cohort_entry_date, then their entry is potsponed to 90 days after the vaccination (if vaccinated more than once in a 90-days window, the computation of 90 days is restarted)</t>
   </si>
   <si>
     <t xml:space="preserve">cohort_entry_date_{ImmDis} &amp; if cause_for_not_entering_followup_{ImmDis} == 0 and exists vaccine_date &gt;=  cohort_entry_date_{ImmDis} &amp; vaccine_date &lt;= cohort_entry_date_{ImmDis} +90 then 1
@@ -297,9 +291,6 @@
     <t>reason why the persons does not enter follow up (if any)  when the prompts are restricted to {group_of_prompt}</t>
   </si>
   <si>
-    <t>if the person is vaccinated during the first 9'0 days after cohort_entry_date, then  their entry is potsponed to 90 days after the vaccination (if vaccinated more than once in a 90-days window, the computation of 90 days is restarted)</t>
-  </si>
-  <si>
     <t>ImmDis group_of_prompt</t>
   </si>
   <si>
@@ -364,13 +355,134 @@
   </si>
   <si>
     <t>for some data sources, some groups may be not caculated; for TEST only PC and HOSP_DISP are calculates</t>
+  </si>
+  <si>
+    <t>D4_source_population</t>
+  </si>
+  <si>
+    <t>if the person is vaccinated during the first 90 days after cohort_entry_date, then their entry is potsponed to 90 days after the vaccination (if vaccinated more than once in a 90-days window, the computation of 90 days is restarted)</t>
+  </si>
+  <si>
+    <t>if the person is vaccinated during the first 90 days after cohort_entry_date, then  their entry is potsponed to 90 days after the vaccination (if vaccinated more than once in a 90-days window, the computation of 90 days is restarted)</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>end_date_record</t>
+  </si>
+  <si>
+    <t>codvar</t>
+  </si>
+  <si>
+    <t>event_record_vocabulary</t>
+  </si>
+  <si>
+    <t>text_linked_to_event_code</t>
+  </si>
+  <si>
+    <t>event_free_text</t>
+  </si>
+  <si>
+    <t>present_on_admission</t>
+  </si>
+  <si>
+    <t>laterality_of_event</t>
+  </si>
+  <si>
+    <t>meaning_renamed</t>
+  </si>
+  <si>
+    <t>origin_of_event</t>
+  </si>
+  <si>
+    <t>visit_occurrence_id</t>
+  </si>
+  <si>
+    <t>Col</t>
+  </si>
+  <si>
+    <t>Table_cdm</t>
+  </si>
+  <si>
+    <t>D3_cohort_E_GRAVES_AESI</t>
+  </si>
+  <si>
+    <t>spell_start_date</t>
+  </si>
+  <si>
+    <t>study_entry_date</t>
+  </si>
+  <si>
+    <t>D3_all_vaccines_dates</t>
+  </si>
+  <si>
+    <t>hospitalisation_primary</t>
+  </si>
+  <si>
+    <t>primary_care_diagnosis</t>
+  </si>
+  <si>
+    <t>P02</t>
+  </si>
+  <si>
+    <t>birth_date</t>
+  </si>
+  <si>
+    <t>death_date</t>
+  </si>
+  <si>
+    <t>sex_at_instance_creation</t>
+  </si>
+  <si>
+    <t>Somma</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Totale parziale</t>
+  </si>
+  <si>
+    <t>Conteggio</t>
+  </si>
+  <si>
+    <t>P03</t>
+  </si>
+  <si>
+    <t>entering_follow_up_postponed_{ImmDis}_{group_of_prompt}</t>
+  </si>
+  <si>
+    <t>cause_for_not_entering_followup_{ImmDis}_{group_of_prompt}</t>
+  </si>
+  <si>
+    <t>0  = no reason, person enters follow-up
+1 = person exits the data source before 90 days while still alive
+2 = person dies before 90 days
+3 = …
+9 = the person has not entered the cohort with when the prompts are restricted to {group_of_prompt}</t>
+  </si>
+  <si>
+    <t>P04</t>
+  </si>
+  <si>
+    <t>Persons that are in the cohort of {ImmDis}, with date of entrance, and possible inclusion in subcohorts (per component). Persons enter the cohort if their first diagnosis of {ImmDis} happens after study_entry_date</t>
+  </si>
+  <si>
+    <t>P05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P01 enters the cohort and the follow-up, both of the general cohort and of the PC and HOSP_DISP cohorts (not of HOSP_SPEC_DISP becausde the TEST datasource does not contribute to thisgroup of prompts). P02 enters the cohort but not the followup because they die 80 days after entering the cohort. P03 has the first diagnosis before entering the source population - so they do not enter the study. P04 has the the first diagnosis before accruing 365 days in the source population, so it does not enter the cohort. P05 enters the cohort and the followup, but with delay because they are vaccinated during the 90 days after entering the cohort, twice, they also enter both PC and HOSP_DISP groupd of prompt, but </t>
+  </si>
+  <si>
+    <t>E_GRAVES_AESI_narrow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -406,13 +518,62 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -442,7 +603,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -474,12 +635,84 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -758,7 +991,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -783,12 +1016,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -796,7 +1029,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -804,7 +1037,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -828,7 +1061,7 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -836,7 +1069,7 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -844,7 +1077,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -858,10 +1091,10 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -918,179 +1151,179 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>53</v>
-      </c>
       <c r="I5" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>53</v>
-      </c>
       <c r="I7" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1103,8 +1336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1138,10 +1371,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
         <v>53</v>
-      </c>
-      <c r="B2" t="s">
-        <v>54</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -1152,10 +1385,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -1166,10 +1399,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
@@ -1180,10 +1413,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -1194,10 +1427,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
@@ -1208,10 +1441,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
@@ -1222,10 +1455,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
         <v>34</v>
@@ -1236,10 +1469,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
         <v>35</v>
@@ -1250,10 +1483,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
         <v>36</v>
@@ -1264,10 +1497,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
@@ -1278,78 +1511,78 @@
     </row>
     <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" t="s">
         <v>73</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>75</v>
       </c>
-      <c r="E12" t="s">
-        <v>77</v>
-      </c>
       <c r="F12" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" t="s">
         <v>75</v>
       </c>
-      <c r="E13" t="s">
-        <v>77</v>
-      </c>
       <c r="F13" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" t="s">
         <v>72</v>
       </c>
-      <c r="B14" t="s">
-        <v>74</v>
-      </c>
       <c r="D14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" t="s">
         <v>75</v>
       </c>
-      <c r="E14" t="s">
-        <v>77</v>
-      </c>
       <c r="F14" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1359,149 +1592,819 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.21875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" style="12" customWidth="1"/>
     <col min="2" max="2" width="25.109375" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="17" width="8.6640625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+    </row>
+    <row r="2" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="G2" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="H2" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="I2" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="L2" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="M2" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="N2" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="O2" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="P2" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q2" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="R2" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="S2" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="T2" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="P1" s="10" t="s">
+      <c r="U2" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="V2" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="R1" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="S1" s="10" t="s">
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="23">
+        <v>100</v>
+      </c>
+      <c r="C3" s="23">
+        <v>2190</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23">
+        <v>0</v>
+      </c>
+      <c r="F3" s="23">
+        <v>1</v>
+      </c>
+      <c r="G3" s="23">
+        <v>190</v>
+      </c>
+      <c r="H3" s="23">
+        <v>150</v>
+      </c>
+      <c r="I3" s="23">
+        <v>0</v>
+      </c>
+      <c r="J3" s="23">
+        <v>0</v>
+      </c>
+      <c r="K3" s="23">
+        <v>1</v>
+      </c>
+      <c r="L3" s="23">
+        <v>240</v>
+      </c>
+      <c r="M3" s="23">
+        <v>100</v>
+      </c>
+      <c r="N3" s="23">
+        <v>0</v>
+      </c>
+      <c r="O3" s="23">
+        <v>0</v>
+      </c>
+      <c r="P3" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="23">
+        <v>190</v>
+      </c>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="24"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="26">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="26">
+        <v>1080</v>
+      </c>
+      <c r="D4" s="26">
+        <v>2</v>
+      </c>
+      <c r="E4" s="26">
+        <v>0</v>
+      </c>
+      <c r="F4" s="26">
+        <v>0</v>
+      </c>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26">
+        <v>0</v>
+      </c>
+      <c r="K4" s="26">
+        <v>0</v>
+      </c>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26">
+        <v>1000</v>
+      </c>
+      <c r="N4" s="26">
+        <v>1080</v>
+      </c>
+      <c r="O4" s="26">
+        <v>2</v>
+      </c>
+      <c r="P4" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="26">
+        <v>0</v>
+      </c>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="23">
+        <v>100</v>
+      </c>
+      <c r="C5" s="23">
+        <v>2190</v>
+      </c>
+      <c r="D5" s="23">
+        <v>0</v>
+      </c>
+      <c r="E5" s="23">
+        <v>1</v>
+      </c>
+      <c r="F5" s="23">
+        <v>1</v>
+      </c>
+      <c r="G5" s="23">
+        <v>280</v>
+      </c>
+      <c r="H5" s="23">
+        <v>120</v>
+      </c>
+      <c r="I5" s="23">
+        <v>0</v>
+      </c>
+      <c r="J5" s="23">
+        <v>1</v>
+      </c>
+      <c r="K5" s="23">
+        <v>1</v>
+      </c>
+      <c r="L5" s="23">
+        <v>300</v>
+      </c>
+      <c r="M5" s="23">
+        <v>100</v>
+      </c>
+      <c r="N5" s="23">
+        <v>0</v>
+      </c>
+      <c r="O5" s="23">
+        <v>1</v>
+      </c>
+      <c r="P5" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="23">
+        <v>280</v>
+      </c>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="N10" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="O10"/>
+      <c r="P10"/>
+    </row>
+    <row r="11" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="20">
+        <v>100</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+    </row>
+    <row r="12" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="20">
+        <v>150</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+    </row>
+    <row r="13" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="19">
+        <v>1000</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+    </row>
+    <row r="14" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" s="20">
+        <v>-100</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+    </row>
+    <row r="15" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="19">
+        <v>50</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+    </row>
+    <row r="16" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="20">
+        <v>100</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+    </row>
+    <row r="17" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" s="20">
+        <v>120</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="T1" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="U1" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="V1" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="12">
+    </row>
+    <row r="20" spans="1:21" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="L20" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="38"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="34"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20">
+        <v>-5000</v>
+      </c>
+      <c r="F21" s="20">
+        <v>1</v>
+      </c>
+      <c r="G21" s="20">
+        <v>2190</v>
+      </c>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="38"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A22" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22" s="32"/>
+      <c r="C22" s="19">
+        <v>1080</v>
+      </c>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19">
+        <v>-5000</v>
+      </c>
+      <c r="F22" s="19">
+        <v>1</v>
+      </c>
+      <c r="G22" s="19">
+        <v>1080</v>
+      </c>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="38"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="34"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20">
+        <v>-5000</v>
+      </c>
+      <c r="F23" s="20">
+        <v>1</v>
+      </c>
+      <c r="G23" s="20">
+        <v>2190</v>
+      </c>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="38"/>
+      <c r="T23" s="38"/>
+      <c r="U23" s="38"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A24" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" s="37"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19">
+        <v>-265</v>
+      </c>
+      <c r="F24" s="19">
         <v>100</v>
       </c>
-      <c r="C2" s="12">
-        <v>730</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0</v>
-      </c>
-      <c r="F2" s="12">
+      <c r="G24" s="19">
+        <v>2190</v>
+      </c>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="38"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A25" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" s="34"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20">
+        <v>-5000</v>
+      </c>
+      <c r="F25" s="20">
         <v>1</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G25" s="20">
+        <v>2190</v>
+      </c>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="38"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A26" s="35"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="38"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A27" s="16"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="38"/>
+      <c r="U27" s="38"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="38"/>
+      <c r="T28" s="38"/>
+      <c r="U28" s="38"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="38"/>
+      <c r="T29" s="38"/>
+      <c r="U29" s="38"/>
+    </row>
+    <row r="30" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A31" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31" s="20">
+        <v>110</v>
+      </c>
+      <c r="C31" s="20"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A32" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" s="20">
         <v>190</v>
       </c>
-      <c r="H2" s="12">
-        <v>150</v>
-      </c>
-      <c r="I2" s="12">
-        <v>0</v>
-      </c>
-      <c r="J2" s="12">
-        <v>0</v>
-      </c>
-      <c r="K2" s="12">
-        <v>1</v>
-      </c>
-      <c r="L2" s="12">
-        <v>240</v>
-      </c>
-      <c r="M2" s="12">
-        <v>100</v>
-      </c>
-      <c r="N2" s="12">
-        <v>0</v>
-      </c>
-      <c r="O2" s="12">
-        <v>0</v>
-      </c>
-      <c r="P2" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="12">
-        <v>190</v>
-      </c>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
+      <c r="C32" s="20"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L20:U29"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/i_codebooks/D3_cohort_{ImmDis}.xlsx
+++ b/i_codebooks/D3_cohort_{ImmDis}.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="175">
   <si>
     <t>metadata_content</t>
   </si>
@@ -147,9 +147,6 @@
   </si>
   <si>
     <t>itself</t>
-  </si>
-  <si>
-    <t>persons that are in the cohort of {ImmDis}</t>
   </si>
   <si>
     <t>person_id</t>
@@ -229,11 +226,6 @@
   </si>
   <si>
     <t>entering_follow_up_postponed_{ImmDis}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cohort_entry_date_{ImmDis} &amp; if cause_for_not_entering_followup_{ImmDis} == 0 and exists vaccine_date &gt;=  cohort_entry_date_{ImmDis} &amp; vaccine_date &lt;= cohort_entry_date_{ImmDis} +90 then 1
-0 otherwise
-</t>
   </si>
   <si>
     <t>if  entering_follow_up_{ImmDis} == 1 &amp; entering_follow_up_postponed_{ImmDis} == 0:
@@ -285,9 +277,6 @@
     <t>date when the person enters the follow up for {ImmDis}  when the prompts are restricted to {group_of_prompt}</t>
   </si>
   <si>
-    <t>date when the person is first found for {ImmDis} when the prompts are restricted to {group_of_prompt}</t>
-  </si>
-  <si>
     <t>reason why the persons does not enter follow up (if any)  when the prompts are restricted to {group_of_prompt}</t>
   </si>
   <si>
@@ -414,9 +403,6 @@
     <t>study_entry_date</t>
   </si>
   <si>
-    <t>D3_all_vaccines_dates</t>
-  </si>
-  <si>
     <t>hospitalisation_primary</t>
   </si>
   <si>
@@ -433,18 +419,6 @@
   </si>
   <si>
     <t>sex_at_instance_creation</t>
-  </si>
-  <si>
-    <t>Somma</t>
-  </si>
-  <si>
-    <t>Media</t>
-  </si>
-  <si>
-    <t>Totale parziale</t>
-  </si>
-  <si>
-    <t>Conteggio</t>
   </si>
   <si>
     <t>P03</t>
@@ -466,23 +440,146 @@
     <t>P04</t>
   </si>
   <si>
-    <t>Persons that are in the cohort of {ImmDis}, with date of entrance, and possible inclusion in subcohorts (per component). Persons enter the cohort if their first diagnosis of {ImmDis} happens after study_entry_date</t>
-  </si>
-  <si>
     <t>P05</t>
   </si>
   <si>
-    <t xml:space="preserve">P01 enters the cohort and the follow-up, both of the general cohort and of the PC and HOSP_DISP cohorts (not of HOSP_SPEC_DISP becausde the TEST datasource does not contribute to thisgroup of prompts). P02 enters the cohort but not the followup because they die 80 days after entering the cohort. P03 has the first diagnosis before entering the source population - so they do not enter the study. P04 has the the first diagnosis before accruing 365 days in the source population, so it does not enter the cohort. P05 enters the cohort and the followup, but with delay because they are vaccinated during the 90 days after entering the cohort, twice, they also enter both PC and HOSP_DISP groupd of prompt, but </t>
-  </si>
-  <si>
     <t>E_GRAVES_AESI_narrow</t>
+  </si>
+  <si>
+    <t>D3_all_vaccines_curated</t>
+  </si>
+  <si>
+    <t>date_curated</t>
+  </si>
+  <si>
+    <t>dose_curated</t>
+  </si>
+  <si>
+    <t>manufacturer_curated</t>
+  </si>
+  <si>
+    <t>vacco_id</t>
+  </si>
+  <si>
+    <t>root_indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cohort_entry_date_{ImmDis} &amp; if cause_for_not_entering_followup_{ImmDis} == 0 and exists vaccine_date &gt;  cohort_entry_date_{ImmDis} &amp; vaccine_date &lt;= cohort_entry_date_{ImmDis} +90 then 1
+0 otherwise
+</t>
+  </si>
+  <si>
+    <t>enter_cohort_{ImmDis}</t>
+  </si>
+  <si>
+    <t>this is only defined for few values of {ImmDis}, see corresponding BRIDGE</t>
+  </si>
+  <si>
+    <t>additional exclusion criterion (presence during lookback of some treatments and/or diagnostic codes)</t>
+  </si>
+  <si>
+    <t>exclude_because_exist_code_during_lookback_{ImmDis}</t>
+  </si>
+  <si>
+    <t>exclude_because_exist_exclusion_criterion_during_lookback_{ImmDis}</t>
+  </si>
+  <si>
+    <t>during lookback there is a code of {ImmDis} (not an incident case)</t>
+  </si>
+  <si>
+    <t>entrance in the cohort of {ImmDis}</t>
+  </si>
+  <si>
+    <t>0 = Not exclude
+1 = Exclude</t>
+  </si>
+  <si>
+    <t>Persons in the source population that have at least a code of {ImmDis} during study period, with selection crieria and date of entrance and start of followup in the cohort of each group of prompts</t>
+  </si>
+  <si>
+    <t>persons in the source population that have at least a code of {ImmDis} during the study petiod</t>
+  </si>
+  <si>
+    <t>start of the study period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exists code of {ImmDis} with date &lt; study_entry_date and date &gt;= study_entry_date - 365 then 1
+0 otherwise
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">only for selected diseases: exists code of additional exclusion criterion with date &lt; study_entry_date and date &gt;= study_entry_date - 365 then 1
+0 otherwise
+</t>
+  </si>
+  <si>
+    <t>end of the observation period</t>
+  </si>
+  <si>
+    <t>exclude_because_exist_code_during_lookback_{ImmDis}_{group_of_prompt}</t>
+  </si>
+  <si>
+    <t>exclude_because_exist_exclusion_criterion_during_lookback_{ImmDis}_{group_of_prompt}</t>
+  </si>
+  <si>
+    <t>enter_cohort_{ImmDis}_{group_of_prompt}</t>
+  </si>
+  <si>
+    <t>date when the person is first found for {ImmDis} in the study period when the prompts are restricted to {group_of_prompt}</t>
+  </si>
+  <si>
+    <t>has_a_code_in_the_study_period_{ImmDis}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exists code of {ImmDis} with date &gt;= study_entry_date
+</t>
+  </si>
+  <si>
+    <t>has_a_code_in_the_study_period_{ImmDis}_{group_of_prompt}</t>
+  </si>
+  <si>
+    <t>whether there is at least a code of {ImmDis} during the study period. Having this variable = 1 is the inclusion criterion in the UoOs of this dataset</t>
+  </si>
+  <si>
+    <t>whether there is at least a code of {ImmDis} during the study period when restricted to {group_of_prompt}</t>
+  </si>
+  <si>
+    <t>has_a_code_in_the_study_period_E_GRAVES_AESI</t>
+  </si>
+  <si>
+    <t>exclude_because_exist_code_during_lookback_E_GRAVES_AESI</t>
+  </si>
+  <si>
+    <t>exclude_because_exist_exclusion_criterion_during_lookback_E_GRAVES_AESI</t>
+  </si>
+  <si>
+    <t>enter_cohort_E_GRAVES_AESI</t>
+  </si>
+  <si>
+    <t>P06</t>
+  </si>
+  <si>
+    <t>P01 enters the cohort and the follow-up, both of the general cohort and of the PC and HOSP_DISP cohorts (not of HOSP_SPEC_DISP becausde the TEST datasource does not contribute to thisgroup of prompts). P02 enters the cohort but not the followup because they die 80 days after entering the cohort. P03 has a diagnosis during the study period, but also one during lookback - so they do not enter the cohort. P04 has the the first diagnosis before accruing 365 days in the source population, so it does not enter the dataset. P05 enters the cohort and the followup, but with delay because they are vaccinated during the 90 days after entering the cohort, twice, they also enter both PC and HOSP_DISP groups of prompt.
+P06 has a very old diagnosis (before start of lookback) so it looks like it is incident</t>
+  </si>
+  <si>
+    <t>has_a_code_in_the_study_period_E_GRAVES_AESI_PC</t>
+  </si>
+  <si>
+    <t>exclude_because_exist_code_during_lookback_E_GRAVES_AESI_PC</t>
+  </si>
+  <si>
+    <t>exclude_because_exist_exclusion_criterion_during_lookback_E_GRAVES_AESI_PC</t>
+  </si>
+  <si>
+    <t>enter_cohort_E_GRAVES_AESI_PC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -542,6 +639,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -603,7 +706,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -663,7 +766,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -685,18 +787,30 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -991,7 +1105,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1021,7 +1135,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1029,7 +1143,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1061,7 +1175,7 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1069,7 +1183,7 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1077,7 +1191,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1088,13 +1202,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1151,179 +1265,341 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="H3" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>48</v>
-      </c>
+      <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>155</v>
       </c>
       <c r="H4" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="C10" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="F10" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="I10" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="D11" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>84</v>
+      <c r="I11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="F13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" s="10" t="s">
+      <c r="B22" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>81</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1371,10 +1647,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
         <v>52</v>
-      </c>
-      <c r="B2" t="s">
-        <v>53</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -1385,10 +1661,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -1399,10 +1675,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
@@ -1413,10 +1689,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -1427,10 +1703,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
@@ -1441,10 +1717,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
@@ -1455,10 +1731,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
         <v>34</v>
@@ -1469,10 +1745,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
         <v>35</v>
@@ -1483,10 +1759,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
         <v>36</v>
@@ -1497,10 +1773,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
@@ -1511,78 +1787,78 @@
     </row>
     <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" t="s">
         <v>71</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>73</v>
       </c>
-      <c r="E12" t="s">
-        <v>75</v>
-      </c>
       <c r="F12" s="12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" t="s">
         <v>73</v>
       </c>
-      <c r="E13" t="s">
-        <v>75</v>
-      </c>
       <c r="F13" s="12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s">
         <v>70</v>
       </c>
-      <c r="B14" t="s">
-        <v>72</v>
-      </c>
       <c r="D14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" t="s">
         <v>73</v>
       </c>
-      <c r="E14" t="s">
-        <v>75</v>
-      </c>
       <c r="F14" s="12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1592,10 +1868,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V33"/>
+  <dimension ref="A1:AE40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:C32"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1605,9 +1881,9 @@
     <col min="3" max="17" width="8.6640625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1631,98 +1907,125 @@
       <c r="U1" s="10"/>
       <c r="V1" s="10"/>
     </row>
-    <row r="2" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="K2" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="22" t="s">
+      <c r="L2" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="M2" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="N2" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="O2" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="P2" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q2" s="22" t="s">
         <v>87</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="N2" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="O2" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="P2" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q2" s="22" t="s">
-        <v>97</v>
       </c>
       <c r="R2" s="22" t="s">
         <v>98</v>
       </c>
       <c r="S2" s="22" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="T2" s="22" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="U2" s="22" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="V2" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="W2" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="X2" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y2" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z2" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA2" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB2" s="22" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AC2" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD2" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE2" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B3" s="23">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="C3" s="23">
         <v>2190</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="39">
+        <v>1</v>
+      </c>
+      <c r="E3" s="16">
         <v>0</v>
       </c>
-      <c r="E3" s="23">
+      <c r="F3" s="16">
         <v>0</v>
       </c>
-      <c r="F3" s="23">
-        <v>1</v>
-      </c>
-      <c r="G3" s="23">
-        <v>190</v>
+      <c r="G3" s="16">
+        <v>1</v>
       </c>
       <c r="H3" s="23">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="I3" s="23">
         <v>0</v>
@@ -1734,243 +2037,320 @@
         <v>1</v>
       </c>
       <c r="L3" s="23">
+        <v>190</v>
+      </c>
+      <c r="Q3" s="23">
+        <v>150</v>
+      </c>
+      <c r="R3" s="23">
+        <v>0</v>
+      </c>
+      <c r="S3" s="23">
+        <v>0</v>
+      </c>
+      <c r="T3" s="23">
+        <v>1</v>
+      </c>
+      <c r="U3" s="23">
         <v>240</v>
       </c>
-      <c r="M3" s="23">
+      <c r="V3" s="23">
         <v>100</v>
       </c>
-      <c r="N3" s="23">
+      <c r="W3" s="23">
         <v>0</v>
       </c>
-      <c r="O3" s="23">
+      <c r="X3" s="23">
         <v>0</v>
       </c>
-      <c r="P3" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="23">
+      <c r="Y3" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="23">
         <v>190</v>
       </c>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="24"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="24"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="25">
+        <v>1</v>
+      </c>
+      <c r="C4" s="25">
+        <v>1080</v>
+      </c>
+      <c r="D4" s="39">
+        <v>1</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0</v>
+      </c>
+      <c r="F4" s="16">
+        <v>0</v>
+      </c>
+      <c r="G4" s="16">
+        <v>1</v>
+      </c>
+      <c r="H4" s="25">
+        <v>1000</v>
+      </c>
+      <c r="I4" s="25">
+        <v>2</v>
+      </c>
+      <c r="J4" s="25">
+        <v>0</v>
+      </c>
+      <c r="K4" s="25">
+        <v>0</v>
+      </c>
+      <c r="L4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25">
+        <v>0</v>
+      </c>
+      <c r="T4" s="25">
+        <v>0</v>
+      </c>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25">
+        <v>1000</v>
+      </c>
+      <c r="W4" s="25">
+        <v>1080</v>
+      </c>
+      <c r="X4" s="25">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="26">
-        <v>1000</v>
-      </c>
-      <c r="C4" s="26">
-        <v>1080</v>
-      </c>
-      <c r="D4" s="26">
-        <v>2</v>
-      </c>
-      <c r="E4" s="26">
+      <c r="B5" s="12">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12">
+        <v>2190</v>
+      </c>
+      <c r="D5" s="12">
+        <v>1</v>
+      </c>
+      <c r="E5" s="12">
+        <v>1</v>
+      </c>
+      <c r="F5" s="12">
         <v>0</v>
       </c>
-      <c r="F4" s="26">
+      <c r="G5" s="12">
         <v>0</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26">
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="23">
+        <v>1</v>
+      </c>
+      <c r="C6" s="23">
+        <v>2190</v>
+      </c>
+      <c r="D6" s="39">
+        <v>1</v>
+      </c>
+      <c r="E6" s="16">
         <v>0</v>
       </c>
-      <c r="K4" s="26">
+      <c r="F6" s="16">
         <v>0</v>
       </c>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26">
-        <v>1000</v>
-      </c>
-      <c r="N4" s="26">
-        <v>1080</v>
-      </c>
-      <c r="O4" s="26">
-        <v>2</v>
-      </c>
-      <c r="P4" s="26">
+      <c r="G6" s="16">
+        <v>1</v>
+      </c>
+      <c r="H6" s="23">
+        <v>100</v>
+      </c>
+      <c r="I6" s="23">
         <v>0</v>
       </c>
-      <c r="Q4" s="26">
+      <c r="J6" s="23">
+        <v>1</v>
+      </c>
+      <c r="K6" s="23">
+        <v>1</v>
+      </c>
+      <c r="L6" s="23">
+        <v>280</v>
+      </c>
+      <c r="Q6" s="23">
+        <v>120</v>
+      </c>
+      <c r="R6" s="23">
         <v>0</v>
       </c>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="B5" s="23">
+      <c r="S6" s="23">
+        <v>1</v>
+      </c>
+      <c r="T6" s="23">
+        <v>1</v>
+      </c>
+      <c r="U6" s="23">
+        <v>300</v>
+      </c>
+      <c r="V6" s="23">
         <v>100</v>
       </c>
-      <c r="C5" s="23">
+      <c r="W6" s="23">
+        <v>0</v>
+      </c>
+      <c r="X6" s="23">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="23">
+        <v>280</v>
+      </c>
+      <c r="AA6" s="24"/>
+      <c r="AB6" s="24"/>
+      <c r="AC6" s="24"/>
+      <c r="AD6" s="24"/>
+      <c r="AE6" s="24"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A7" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="23">
+        <v>1</v>
+      </c>
+      <c r="C7" s="23">
         <v>2190</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D7" s="41">
+        <v>1</v>
+      </c>
+      <c r="E7" s="42">
         <v>0</v>
       </c>
-      <c r="E5" s="23">
-        <v>1</v>
-      </c>
-      <c r="F5" s="23">
-        <v>1</v>
-      </c>
-      <c r="G5" s="23">
-        <v>280</v>
-      </c>
-      <c r="H5" s="23">
-        <v>120</v>
-      </c>
-      <c r="I5" s="23">
+      <c r="F7" s="42">
         <v>0</v>
       </c>
-      <c r="J5" s="23">
-        <v>1</v>
-      </c>
-      <c r="K5" s="23">
-        <v>1</v>
-      </c>
-      <c r="L5" s="23">
-        <v>300</v>
-      </c>
-      <c r="M5" s="23">
+      <c r="G7" s="42">
+        <v>1</v>
+      </c>
+      <c r="H7" s="40">
         <v>100</v>
       </c>
-      <c r="N5" s="23">
+      <c r="I7" s="40">
         <v>0</v>
       </c>
-      <c r="O5" s="23">
-        <v>1</v>
-      </c>
-      <c r="P5" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="23">
-        <v>280</v>
-      </c>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="25"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J7" s="40">
+        <v>0</v>
+      </c>
+      <c r="K7" s="40">
+        <v>1</v>
+      </c>
+      <c r="L7" s="40">
+        <v>190</v>
+      </c>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="40"/>
+      <c r="AA7" s="43"/>
+      <c r="AB7" s="43"/>
+      <c r="AC7" s="43"/>
+      <c r="AD7" s="43"/>
+      <c r="AE7" s="43"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="F10" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="G10" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="H10" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="I10" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="J10" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="K10" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="L10" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="M10" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="N10" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="L10" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="M10" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="N10" s="19" t="s">
-        <v>121</v>
-      </c>
       <c r="O10"/>
-      <c r="P10"/>
-    </row>
-    <row r="11" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="P10" s="9"/>
+    </row>
+    <row r="11" spans="1:31" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B11" s="20">
         <v>100</v>
@@ -1983,16 +2363,17 @@
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
       <c r="J11" s="20" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K11" s="20"/>
       <c r="L11" s="20"/>
       <c r="M11" s="20"/>
       <c r="N11" s="20"/>
-    </row>
-    <row r="12" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="P11" s="9"/>
+    </row>
+    <row r="12" spans="1:31" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" s="20">
         <v>150</v>
@@ -2005,16 +2386,17 @@
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
       <c r="J12" s="20" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
       <c r="M12" s="20"/>
       <c r="N12" s="20"/>
-    </row>
-    <row r="13" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="P12" s="9"/>
+    </row>
+    <row r="13" spans="1:31" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B13" s="19">
         <v>1000</v>
@@ -2027,16 +2409,17 @@
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
       <c r="J13" s="19" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
       <c r="N13" s="19"/>
-    </row>
-    <row r="14" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="P13" s="9"/>
+    </row>
+    <row r="14" spans="1:31" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B14" s="20">
         <v>-100</v>
@@ -2049,63 +2432,64 @@
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
       <c r="J14" s="20" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
       <c r="N14" s="20"/>
-    </row>
-    <row r="15" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="B15" s="19">
+      <c r="P14" s="9"/>
+    </row>
+    <row r="15" spans="1:31" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="20">
+        <v>100</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+    </row>
+    <row r="16" spans="1:31" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="19">
         <v>50</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-    </row>
-    <row r="16" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="B16" s="20">
-        <v>100</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
     </row>
     <row r="17" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B17" s="20">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
@@ -2115,297 +2499,396 @@
       <c r="H17" s="20"/>
       <c r="I17" s="20"/>
       <c r="J17" s="20" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="K17" s="20"/>
       <c r="L17" s="20"/>
       <c r="M17" s="20"/>
       <c r="N17" s="20"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="144" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="E20" s="31" t="s">
+    <row r="18" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="20">
+        <v>120</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+    </row>
+    <row r="19" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="B19" s="19">
+        <v>-3000</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+    </row>
+    <row r="20" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="B20" s="19">
+        <v>100</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="L23" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="33"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20">
+        <v>-5000</v>
+      </c>
+      <c r="F24" s="20">
+        <v>1</v>
+      </c>
+      <c r="G24" s="20">
+        <v>2190</v>
+      </c>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A25" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="G20" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="L20" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="38"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A21" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20">
+      <c r="B25" s="31"/>
+      <c r="C25" s="19">
+        <v>1080</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19">
         <v>-5000</v>
       </c>
-      <c r="F21" s="20">
-        <v>1</v>
-      </c>
-      <c r="G21" s="20">
+      <c r="F25" s="19">
+        <v>1</v>
+      </c>
+      <c r="G25" s="19">
+        <v>1080</v>
+      </c>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A26" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" s="33"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20">
+        <v>-5000</v>
+      </c>
+      <c r="F26" s="20">
+        <v>1</v>
+      </c>
+      <c r="G26" s="20">
         <v>2190</v>
       </c>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="38"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A22" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="19">
-        <v>1080</v>
-      </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19">
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A27" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" s="34"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19">
+        <v>-265</v>
+      </c>
+      <c r="F27" s="19">
+        <v>100</v>
+      </c>
+      <c r="G27" s="19">
+        <v>2190</v>
+      </c>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A28" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" s="33"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20">
         <v>-5000</v>
       </c>
-      <c r="F22" s="19">
-        <v>1</v>
-      </c>
-      <c r="G22" s="19">
-        <v>1080</v>
-      </c>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="38"/>
-      <c r="S22" s="38"/>
-      <c r="T22" s="38"/>
-      <c r="U22" s="38"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A23" s="20" t="s">
+      <c r="F28" s="20">
+        <v>1</v>
+      </c>
+      <c r="G28" s="20">
+        <v>2190</v>
+      </c>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A29" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="B29" s="34"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19">
+        <v>-5000</v>
+      </c>
+      <c r="F29" s="19">
+        <v>1</v>
+      </c>
+      <c r="G29" s="19">
+        <v>2190</v>
+      </c>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="36"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A30" s="16"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="36"/>
+      <c r="T30" s="36"/>
+      <c r="U30" s="36"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="36"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A32" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="36"/>
+      <c r="S32" s="36"/>
+      <c r="T32" s="36"/>
+      <c r="U32" s="36"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20">
-        <v>-5000</v>
-      </c>
-      <c r="F23" s="20">
-        <v>1</v>
-      </c>
-      <c r="G23" s="20">
-        <v>2190</v>
-      </c>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="38"/>
-      <c r="S23" s="38"/>
-      <c r="T23" s="38"/>
-      <c r="U23" s="38"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A24" s="19" t="s">
+      <c r="C33" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F33" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19">
-        <v>-265</v>
-      </c>
-      <c r="F24" s="19">
-        <v>100</v>
-      </c>
-      <c r="G24" s="19">
-        <v>2190</v>
-      </c>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="38"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="38"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A25" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20">
-        <v>-5000</v>
-      </c>
-      <c r="F25" s="20">
-        <v>1</v>
-      </c>
-      <c r="G25" s="20">
-        <v>2190</v>
-      </c>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="38"/>
-      <c r="S25" s="38"/>
-      <c r="T25" s="38"/>
-      <c r="U25" s="38"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A26" s="35"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
-      <c r="S26" s="38"/>
-      <c r="T26" s="38"/>
-      <c r="U26" s="38"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A27" s="16"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="38"/>
-      <c r="R27" s="38"/>
-      <c r="S27" s="38"/>
-      <c r="T27" s="38"/>
-      <c r="U27" s="38"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="38"/>
-      <c r="S28" s="38"/>
-      <c r="T28" s="38"/>
-      <c r="U28" s="38"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A29" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="38"/>
-      <c r="S29" s="38"/>
-      <c r="T29" s="38"/>
-      <c r="U29" s="38"/>
-    </row>
-    <row r="30" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A31" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="B31" s="20">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34" s="20">
         <v>110</v>
       </c>
-      <c r="C31" s="20"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A32" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="B32" s="20">
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" s="20">
         <v>190</v>
       </c>
-      <c r="C32" s="20"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="L20:U29"/>
+    <mergeCell ref="L23:U32"/>
   </mergeCells>
-  <conditionalFormatting sqref="A29">
+  <conditionalFormatting sqref="A32">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/i_codebooks/D3_cohort_{ImmDis}.xlsx
+++ b/i_codebooks/D3_cohort_{ImmDis}.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="183">
   <si>
     <t>metadata_content</t>
   </si>
@@ -573,6 +573,30 @@
   </si>
   <si>
     <t>enter_cohort_E_GRAVES_AESI_PC</t>
+  </si>
+  <si>
+    <t>has_a_code_in_the_study_period_E_GRAVES_AESI_HOSP_DISP</t>
+  </si>
+  <si>
+    <t>exclude_because_exist_code_during_lookback_E_GRAVES_AESI_HOSP_DISP</t>
+  </si>
+  <si>
+    <t>exclude_because_exist_exclusion_criterion_during_lookback_E_GRAVES_AESI_HOSP_DISP</t>
+  </si>
+  <si>
+    <t>enter_cohort_E_GRAVES_AESI_HOSP_DISP</t>
+  </si>
+  <si>
+    <t>has_a_code_in_the_study_period_E_GRAVES_AESI_HOSP_SPEC_DISP</t>
+  </si>
+  <si>
+    <t>exclude_because_exist_code_during_lookback_E_GRAVES_AESI_HOSP_SPEC_DISP</t>
+  </si>
+  <si>
+    <t>exclude_because_exist_exclusion_criterion_during_lookback_E_GRAVES_AESI_HOSP_SPEC_DISP</t>
+  </si>
+  <si>
+    <t>enter_cohort_E_GRAVES_AESI_HOSP_SPEC_DISP</t>
   </si>
 </sst>
 </file>
@@ -706,7 +730,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -793,24 +817,14 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1281,8 +1295,8 @@
       <c r="C3" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
       <c r="H3" s="9" t="s">
         <v>47</v>
       </c>
@@ -1868,10 +1882,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE40"/>
+  <dimension ref="A1:AM40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1881,7 +1895,7 @@
     <col min="3" max="17" width="8.6640625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>119</v>
       </c>
@@ -1907,7 +1921,7 @@
       <c r="U1" s="10"/>
       <c r="V1" s="10"/>
     </row>
-    <row r="2" spans="1:31" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>40</v>
       </c>
@@ -1917,16 +1931,16 @@
       <c r="C2" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="22" t="s">
         <v>168</v>
       </c>
       <c r="H2" s="22" t="s">
@@ -1944,16 +1958,16 @@
       <c r="L2" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="M2" s="38" t="s">
+      <c r="M2" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="N2" s="38" t="s">
+      <c r="N2" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="O2" s="38" t="s">
+      <c r="O2" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="P2" s="38" t="s">
+      <c r="P2" s="22" t="s">
         <v>174</v>
       </c>
       <c r="Q2" s="22" t="s">
@@ -1972,37 +1986,61 @@
         <v>89</v>
       </c>
       <c r="V2" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="W2" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="X2" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y2" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z2" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="W2" s="22" t="s">
+      <c r="AA2" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="X2" s="22" t="s">
+      <c r="AB2" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="Y2" s="22" t="s">
+      <c r="AC2" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="Z2" s="22" t="s">
+      <c r="AD2" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="AA2" s="22" t="s">
+      <c r="AE2" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF2" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG2" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH2" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI2" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="AB2" s="22" t="s">
+      <c r="AJ2" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="AC2" s="22" t="s">
+      <c r="AK2" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="AD2" s="22" t="s">
+      <c r="AL2" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="AE2" s="22" t="s">
+      <c r="AM2" s="22" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>66</v>
       </c>
@@ -2015,13 +2053,13 @@
       <c r="D3" s="39">
         <v>1</v>
       </c>
-      <c r="E3" s="16">
-        <v>0</v>
-      </c>
-      <c r="F3" s="16">
-        <v>0</v>
-      </c>
-      <c r="G3" s="16">
+      <c r="E3" s="23">
+        <v>0</v>
+      </c>
+      <c r="F3" s="23">
+        <v>0</v>
+      </c>
+      <c r="G3" s="23">
         <v>1</v>
       </c>
       <c r="H3" s="23">
@@ -2039,6 +2077,18 @@
       <c r="L3" s="23">
         <v>190</v>
       </c>
+      <c r="M3" s="23">
+        <v>1</v>
+      </c>
+      <c r="N3" s="23">
+        <v>0</v>
+      </c>
+      <c r="O3" s="23">
+        <v>0</v>
+      </c>
+      <c r="P3" s="23">
+        <v>1</v>
+      </c>
       <c r="Q3" s="23">
         <v>150</v>
       </c>
@@ -2055,27 +2105,43 @@
         <v>240</v>
       </c>
       <c r="V3" s="23">
+        <v>1</v>
+      </c>
+      <c r="W3" s="23">
+        <v>0</v>
+      </c>
+      <c r="X3" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="23">
         <v>100</v>
       </c>
-      <c r="W3" s="23">
-        <v>0</v>
-      </c>
-      <c r="X3" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="23">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="23">
+      <c r="AA3" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="23">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="23">
         <v>190</v>
       </c>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
       <c r="AE3" s="24"/>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="24"/>
+      <c r="AI3" s="23"/>
+      <c r="AJ3" s="23"/>
+      <c r="AK3" s="23"/>
+      <c r="AL3" s="23"/>
+      <c r="AM3" s="24"/>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>124</v>
       </c>
@@ -2085,16 +2151,16 @@
       <c r="C4" s="25">
         <v>1080</v>
       </c>
-      <c r="D4" s="39">
-        <v>1</v>
-      </c>
-      <c r="E4" s="16">
-        <v>0</v>
-      </c>
-      <c r="F4" s="16">
-        <v>0</v>
-      </c>
-      <c r="G4" s="16">
+      <c r="D4" s="38">
+        <v>1</v>
+      </c>
+      <c r="E4" s="25">
+        <v>0</v>
+      </c>
+      <c r="F4" s="25">
+        <v>0</v>
+      </c>
+      <c r="G4" s="25">
         <v>1</v>
       </c>
       <c r="H4" s="25">
@@ -2110,138 +2176,236 @@
         <v>0</v>
       </c>
       <c r="L4" s="25"/>
+      <c r="M4" s="25">
+        <v>0</v>
+      </c>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25">
+        <v>0</v>
+      </c>
       <c r="Q4" s="25"/>
       <c r="R4" s="25"/>
-      <c r="S4" s="25">
-        <v>0</v>
-      </c>
-      <c r="T4" s="25">
-        <v>0</v>
-      </c>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
       <c r="U4" s="25"/>
-      <c r="V4" s="25">
+      <c r="V4" s="26">
+        <v>1</v>
+      </c>
+      <c r="W4" s="26">
+        <v>0</v>
+      </c>
+      <c r="X4" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="26">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="25">
         <v>1000</v>
       </c>
-      <c r="W4" s="25">
+      <c r="AA4" s="25">
         <v>1080</v>
       </c>
-      <c r="X4" s="25">
+      <c r="AB4" s="25">
         <v>2</v>
       </c>
-      <c r="Y4" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="26"/>
+      <c r="AC4" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="25">
+        <v>0</v>
+      </c>
       <c r="AE4" s="26"/>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="26"/>
+      <c r="AI4" s="26"/>
+      <c r="AJ4" s="26"/>
+      <c r="AK4" s="26"/>
+      <c r="AL4" s="26"/>
+      <c r="AM4" s="26"/>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="12">
-        <v>1</v>
-      </c>
-      <c r="C5" s="12">
+      <c r="B5" s="23">
+        <v>1</v>
+      </c>
+      <c r="C5" s="23">
         <v>2190</v>
       </c>
-      <c r="D5" s="12">
-        <v>1</v>
-      </c>
-      <c r="E5" s="12">
-        <v>1</v>
-      </c>
-      <c r="F5" s="12">
-        <v>0</v>
-      </c>
-      <c r="G5" s="12">
-        <v>0</v>
-      </c>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="D5" s="23">
+        <v>1</v>
+      </c>
+      <c r="E5" s="23">
+        <v>1</v>
+      </c>
+      <c r="F5" s="23">
+        <v>0</v>
+      </c>
+      <c r="G5" s="23">
+        <v>0</v>
+      </c>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23">
+        <v>0</v>
+      </c>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="24">
+        <v>1</v>
+      </c>
+      <c r="W5" s="24">
+        <v>0</v>
+      </c>
+      <c r="X5" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="24">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="24">
+        <v>100</v>
+      </c>
+      <c r="AA5" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="24">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="24">
+        <v>190</v>
+      </c>
+      <c r="AE5" s="24"/>
+      <c r="AF5" s="24"/>
+      <c r="AG5" s="24"/>
+      <c r="AH5" s="24"/>
+      <c r="AI5" s="24"/>
+      <c r="AJ5" s="24"/>
+      <c r="AK5" s="24"/>
+      <c r="AL5" s="24"/>
+      <c r="AM5" s="24"/>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="23">
-        <v>1</v>
-      </c>
-      <c r="C6" s="23">
+      <c r="B6" s="25">
+        <v>1</v>
+      </c>
+      <c r="C6" s="25">
         <v>2190</v>
       </c>
-      <c r="D6" s="39">
-        <v>1</v>
-      </c>
-      <c r="E6" s="16">
-        <v>0</v>
-      </c>
-      <c r="F6" s="16">
-        <v>0</v>
-      </c>
-      <c r="G6" s="16">
-        <v>1</v>
-      </c>
-      <c r="H6" s="23">
+      <c r="D6" s="38">
+        <v>1</v>
+      </c>
+      <c r="E6" s="25">
+        <v>0</v>
+      </c>
+      <c r="F6" s="25">
+        <v>0</v>
+      </c>
+      <c r="G6" s="25">
+        <v>1</v>
+      </c>
+      <c r="H6" s="25">
         <v>100</v>
       </c>
-      <c r="I6" s="23">
-        <v>0</v>
-      </c>
-      <c r="J6" s="23">
-        <v>1</v>
-      </c>
-      <c r="K6" s="23">
-        <v>1</v>
-      </c>
-      <c r="L6" s="23">
+      <c r="I6" s="25">
+        <v>0</v>
+      </c>
+      <c r="J6" s="25">
+        <v>1</v>
+      </c>
+      <c r="K6" s="25">
+        <v>1</v>
+      </c>
+      <c r="L6" s="25">
         <v>280</v>
       </c>
-      <c r="Q6" s="23">
+      <c r="M6" s="25">
+        <v>1</v>
+      </c>
+      <c r="N6" s="25">
+        <v>0</v>
+      </c>
+      <c r="O6" s="25">
+        <v>0</v>
+      </c>
+      <c r="P6" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="25">
         <v>120</v>
       </c>
-      <c r="R6" s="23">
-        <v>0</v>
-      </c>
-      <c r="S6" s="23">
-        <v>1</v>
-      </c>
-      <c r="T6" s="23">
-        <v>1</v>
-      </c>
-      <c r="U6" s="23">
+      <c r="R6" s="25">
+        <v>0</v>
+      </c>
+      <c r="S6" s="25">
+        <v>1</v>
+      </c>
+      <c r="T6" s="25">
+        <v>1</v>
+      </c>
+      <c r="U6" s="25">
         <v>300</v>
       </c>
-      <c r="V6" s="23">
+      <c r="V6" s="26">
+        <v>1</v>
+      </c>
+      <c r="W6" s="26">
+        <v>0</v>
+      </c>
+      <c r="X6" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="26">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="25">
         <v>100</v>
       </c>
-      <c r="W6" s="23">
-        <v>0</v>
-      </c>
-      <c r="X6" s="23">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="23">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="23">
+      <c r="AA6" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="25">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="25">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="25">
         <v>280</v>
       </c>
-      <c r="AA6" s="24"/>
-      <c r="AB6" s="24"/>
-      <c r="AC6" s="24"/>
-      <c r="AD6" s="24"/>
-      <c r="AE6" s="24"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A7" s="40" t="s">
+      <c r="AE6" s="26"/>
+      <c r="AF6" s="26"/>
+      <c r="AG6" s="26"/>
+      <c r="AH6" s="26"/>
+      <c r="AI6" s="26"/>
+      <c r="AJ6" s="26"/>
+      <c r="AK6" s="26"/>
+      <c r="AL6" s="26"/>
+      <c r="AM6" s="26"/>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
         <v>169</v>
       </c>
       <c r="B7" s="23">
@@ -2250,59 +2414,93 @@
       <c r="C7" s="23">
         <v>2190</v>
       </c>
-      <c r="D7" s="41">
-        <v>1</v>
-      </c>
-      <c r="E7" s="42">
-        <v>0</v>
-      </c>
-      <c r="F7" s="42">
-        <v>0</v>
-      </c>
-      <c r="G7" s="42">
-        <v>1</v>
-      </c>
-      <c r="H7" s="40">
+      <c r="D7" s="39">
+        <v>1</v>
+      </c>
+      <c r="E7" s="23">
+        <v>0</v>
+      </c>
+      <c r="F7" s="23">
+        <v>0</v>
+      </c>
+      <c r="G7" s="23">
+        <v>1</v>
+      </c>
+      <c r="H7" s="23">
         <v>100</v>
       </c>
-      <c r="I7" s="40">
-        <v>0</v>
-      </c>
-      <c r="J7" s="40">
-        <v>0</v>
-      </c>
-      <c r="K7" s="40">
-        <v>1</v>
-      </c>
-      <c r="L7" s="40">
+      <c r="I7" s="23">
+        <v>0</v>
+      </c>
+      <c r="J7" s="23">
+        <v>0</v>
+      </c>
+      <c r="K7" s="23">
+        <v>1</v>
+      </c>
+      <c r="L7" s="23">
         <v>190</v>
       </c>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="40"/>
-      <c r="AA7" s="43"/>
-      <c r="AB7" s="43"/>
-      <c r="AC7" s="43"/>
-      <c r="AD7" s="43"/>
-      <c r="AE7" s="43"/>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="M7" s="23">
+        <v>0</v>
+      </c>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="24">
+        <v>1</v>
+      </c>
+      <c r="W7" s="24">
+        <v>0</v>
+      </c>
+      <c r="X7" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="24">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="23">
+        <v>100</v>
+      </c>
+      <c r="AA7" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="23">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="23">
+        <v>190</v>
+      </c>
+      <c r="AE7" s="24"/>
+      <c r="AF7" s="24"/>
+      <c r="AG7" s="24"/>
+      <c r="AH7" s="24"/>
+      <c r="AI7" s="24"/>
+      <c r="AJ7" s="24"/>
+      <c r="AK7" s="24"/>
+      <c r="AL7" s="24"/>
+      <c r="AM7" s="24"/>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>40</v>
       </c>
@@ -2348,7 +2546,7 @@
       <c r="O10"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:31" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>66</v>
       </c>
@@ -2371,7 +2569,7 @@
       <c r="N11" s="20"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:31" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>66</v>
       </c>
@@ -2394,7 +2592,7 @@
       <c r="N12" s="20"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:31" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>124</v>
       </c>
@@ -2417,7 +2615,7 @@
       <c r="N13" s="19"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:31" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>128</v>
       </c>
@@ -2440,7 +2638,7 @@
       <c r="N14" s="20"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:31" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
         <v>128</v>
       </c>
@@ -2462,7 +2660,7 @@
       <c r="M15" s="20"/>
       <c r="N15" s="20"/>
     </row>
-    <row r="16" spans="1:31" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>132</v>
       </c>
@@ -2599,18 +2797,18 @@
       <c r="G23" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="L23" s="36" t="s">
+      <c r="L23" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="36"/>
-      <c r="U23" s="36"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="37"/>
+      <c r="U23" s="37"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
@@ -2628,16 +2826,16 @@
       <c r="G24" s="20">
         <v>2190</v>
       </c>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="37"/>
+      <c r="U24" s="37"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="s">
@@ -2657,16 +2855,16 @@
       <c r="G25" s="19">
         <v>1080</v>
       </c>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="36"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="37"/>
+      <c r="U25" s="37"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
@@ -2684,16 +2882,16 @@
       <c r="G26" s="20">
         <v>2190</v>
       </c>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="36"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="36"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
@@ -2711,16 +2909,16 @@
       <c r="G27" s="19">
         <v>2190</v>
       </c>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="36"/>
-      <c r="T27" s="36"/>
-      <c r="U27" s="36"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="37"/>
+      <c r="U27" s="37"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
@@ -2738,16 +2936,16 @@
       <c r="G28" s="20">
         <v>2190</v>
       </c>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="36"/>
-      <c r="T28" s="36"/>
-      <c r="U28" s="36"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="37"/>
+      <c r="U28" s="37"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="19" t="s">
@@ -2765,16 +2963,16 @@
       <c r="G29" s="19">
         <v>2190</v>
       </c>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="36"/>
-      <c r="S29" s="36"/>
-      <c r="T29" s="36"/>
-      <c r="U29" s="36"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="37"/>
+      <c r="U29" s="37"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="16"/>
@@ -2784,43 +2982,43 @@
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="36"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="36"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="37"/>
+      <c r="R30" s="37"/>
+      <c r="S30" s="37"/>
+      <c r="T30" s="37"/>
+      <c r="U30" s="37"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="36"/>
-      <c r="S31" s="36"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="36"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="37"/>
+      <c r="S31" s="37"/>
+      <c r="T31" s="37"/>
+      <c r="U31" s="37"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="36"/>
-      <c r="S32" s="36"/>
-      <c r="T32" s="36"/>
-      <c r="U32" s="36"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="37"/>
+      <c r="S32" s="37"/>
+      <c r="T32" s="37"/>
+      <c r="U32" s="37"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="35" t="s">

--- a/i_codebooks/D3_cohort_{ImmDis}.xlsx
+++ b/i_codebooks/D3_cohort_{ImmDis}.xlsx
@@ -820,11 +820,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1884,8 +1884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2050,7 +2050,7 @@
       <c r="C3" s="23">
         <v>2190</v>
       </c>
-      <c r="D3" s="39">
+      <c r="D3" s="38">
         <v>1</v>
       </c>
       <c r="E3" s="23">
@@ -2151,7 +2151,7 @@
       <c r="C4" s="25">
         <v>1080</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="37">
         <v>1</v>
       </c>
       <c r="E4" s="25">
@@ -2313,7 +2313,7 @@
       <c r="C6" s="25">
         <v>2190</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="37">
         <v>1</v>
       </c>
       <c r="E6" s="25">
@@ -2414,7 +2414,7 @@
       <c r="C7" s="23">
         <v>2190</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="38">
         <v>1</v>
       </c>
       <c r="E7" s="23">
@@ -2797,18 +2797,18 @@
       <c r="G23" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="L23" s="37" t="s">
+      <c r="L23" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="37"/>
-      <c r="S23" s="37"/>
-      <c r="T23" s="37"/>
-      <c r="U23" s="37"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="39"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
@@ -2826,16 +2826,16 @@
       <c r="G24" s="20">
         <v>2190</v>
       </c>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="37"/>
-      <c r="S24" s="37"/>
-      <c r="T24" s="37"/>
-      <c r="U24" s="37"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="39"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="s">
@@ -2855,16 +2855,16 @@
       <c r="G25" s="19">
         <v>1080</v>
       </c>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
-      <c r="S25" s="37"/>
-      <c r="T25" s="37"/>
-      <c r="U25" s="37"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="39"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
@@ -2882,16 +2882,16 @@
       <c r="G26" s="20">
         <v>2190</v>
       </c>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="37"/>
-      <c r="S26" s="37"/>
-      <c r="T26" s="37"/>
-      <c r="U26" s="37"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="39"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="39"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
@@ -2909,16 +2909,16 @@
       <c r="G27" s="19">
         <v>2190</v>
       </c>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="37"/>
-      <c r="S27" s="37"/>
-      <c r="T27" s="37"/>
-      <c r="U27" s="37"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="39"/>
+      <c r="U27" s="39"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
@@ -2936,16 +2936,16 @@
       <c r="G28" s="20">
         <v>2190</v>
       </c>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="37"/>
-      <c r="T28" s="37"/>
-      <c r="U28" s="37"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="39"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="19" t="s">
@@ -2963,16 +2963,16 @@
       <c r="G29" s="19">
         <v>2190</v>
       </c>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="37"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="37"/>
-      <c r="U29" s="37"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="39"/>
+      <c r="T29" s="39"/>
+      <c r="U29" s="39"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="16"/>
@@ -2982,43 +2982,43 @@
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="37"/>
-      <c r="Q30" s="37"/>
-      <c r="R30" s="37"/>
-      <c r="S30" s="37"/>
-      <c r="T30" s="37"/>
-      <c r="U30" s="37"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="39"/>
+      <c r="S30" s="39"/>
+      <c r="T30" s="39"/>
+      <c r="U30" s="39"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="37"/>
-      <c r="S31" s="37"/>
-      <c r="T31" s="37"/>
-      <c r="U31" s="37"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="39"/>
+      <c r="S31" s="39"/>
+      <c r="T31" s="39"/>
+      <c r="U31" s="39"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37"/>
-      <c r="S32" s="37"/>
-      <c r="T32" s="37"/>
-      <c r="U32" s="37"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="39"/>
+      <c r="T32" s="39"/>
+      <c r="U32" s="39"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="35" t="s">

--- a/i_codebooks/D3_cohort_{ImmDis}.xlsx
+++ b/i_codebooks/D3_cohort_{ImmDis}.xlsx
@@ -503,11 +503,6 @@
     <t>start of the study period</t>
   </si>
   <si>
-    <t xml:space="preserve">exists code of {ImmDis} with date &lt; study_entry_date and date &gt;= study_entry_date - 365 then 1
-0 otherwise
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">only for selected diseases: exists code of additional exclusion criterion with date &lt; study_entry_date and date &gt;= study_entry_date - 365 then 1
 0 otherwise
 </t>
@@ -597,6 +592,11 @@
   </si>
   <si>
     <t>enter_cohort_E_GRAVES_AESI_HOSP_SPEC_DISP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exists code of {ImmDis} with date &lt; study_entry_date then 1
+0 otherwise
+</t>
   </si>
 </sst>
 </file>
@@ -1219,10 +1219,10 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5:A8"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1307,7 +1307,7 @@
         <v>62</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>47</v>
@@ -1315,10 +1315,10 @@
     </row>
     <row r="5" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>50</v>
@@ -1330,10 +1330,10 @@
         <v>47</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>145</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>149</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
@@ -1367,7 +1367,7 @@
         <v>143</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -1480,10 +1480,10 @@
     </row>
     <row r="14" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>50</v>
@@ -1495,12 +1495,12 @@
         <v>47</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>147</v>
@@ -1512,12 +1512,12 @@
         <v>149</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>144</v>
@@ -1532,12 +1532,12 @@
         <v>143</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>148</v>
@@ -1554,7 +1554,7 @@
         <v>67</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>81</v>
@@ -1884,8 +1884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:AY7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1932,16 +1932,16 @@
         <v>62</v>
       </c>
       <c r="D2" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="F2" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="G2" s="22" t="s">
         <v>167</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>168</v>
       </c>
       <c r="H2" s="22" t="s">
         <v>82</v>
@@ -1959,16 +1959,16 @@
         <v>86</v>
       </c>
       <c r="M2" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="N2" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="O2" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="O2" s="22" t="s">
+      <c r="P2" s="22" t="s">
         <v>173</v>
-      </c>
-      <c r="P2" s="22" t="s">
-        <v>174</v>
       </c>
       <c r="Q2" s="22" t="s">
         <v>87</v>
@@ -1986,16 +1986,16 @@
         <v>89</v>
       </c>
       <c r="V2" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="W2" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="W2" s="22" t="s">
+      <c r="X2" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="X2" s="22" t="s">
+      <c r="Y2" s="22" t="s">
         <v>177</v>
-      </c>
-      <c r="Y2" s="22" t="s">
-        <v>178</v>
       </c>
       <c r="Z2" s="22" t="s">
         <v>90</v>
@@ -2013,16 +2013,16 @@
         <v>94</v>
       </c>
       <c r="AE2" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF2" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="AF2" s="22" t="s">
+      <c r="AG2" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="AG2" s="22" t="s">
+      <c r="AH2" s="22" t="s">
         <v>181</v>
-      </c>
-      <c r="AH2" s="22" t="s">
-        <v>182</v>
       </c>
       <c r="AI2" s="22" t="s">
         <v>95</v>
@@ -2406,7 +2406,7 @@
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B7" s="23">
         <v>1</v>
@@ -2418,29 +2418,19 @@
         <v>1</v>
       </c>
       <c r="E7" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="23">
         <v>0</v>
       </c>
       <c r="G7" s="23">
-        <v>1</v>
-      </c>
-      <c r="H7" s="23">
-        <v>100</v>
-      </c>
-      <c r="I7" s="23">
-        <v>0</v>
-      </c>
-      <c r="J7" s="23">
-        <v>0</v>
-      </c>
-      <c r="K7" s="23">
-        <v>1</v>
-      </c>
-      <c r="L7" s="23">
-        <v>190</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
       <c r="M7" s="23">
         <v>0</v>
       </c>
@@ -2728,10 +2718,10 @@
     </row>
     <row r="19" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B19" s="19">
-        <v>-3000</v>
+        <v>-7000</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
@@ -2750,7 +2740,7 @@
     </row>
     <row r="20" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B20" s="19">
         <v>100</v>
@@ -2798,7 +2788,7 @@
         <v>62</v>
       </c>
       <c r="L23" s="39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M23" s="39"/>
       <c r="N23" s="39"/>
@@ -2949,7 +2939,7 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B29" s="34"/>
       <c r="C29" s="19"/>

--- a/i_codebooks/D3_cohort_{ImmDis}.xlsx
+++ b/i_codebooks/D3_cohort_{ImmDis}.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20413"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosgin2\Documents\ROC18_Objective_2\i_codebooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Documents\Git repositories\Work\ROC18_Objective_2\i_codebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C8F369-F562-4428-BAC5-DED15233A478}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -523,9 +524,6 @@
     <t>date when the person is first found for {ImmDis} in the study period when the prompts are restricted to {group_of_prompt}</t>
   </si>
   <si>
-    <t>has_a_code_in_the_study_period_{ImmDis}</t>
-  </si>
-  <si>
     <t xml:space="preserve">exists code of {ImmDis} with date &gt;= study_entry_date
 </t>
   </si>
@@ -597,12 +595,15 @@
     <t xml:space="preserve">exists code of {ImmDis} with date &lt; study_entry_date then 1
 0 otherwise
 </t>
+  </si>
+  <si>
+    <t>has_not_a_code_in_the_study_period_{ImmDis}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -827,7 +828,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1115,20 +1116,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.88671875" customWidth="1"/>
+    <col min="1" max="1" width="59.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1136,7 +1137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -1144,7 +1145,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -1152,7 +1153,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
@@ -1160,7 +1161,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -1168,7 +1169,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1176,7 +1177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -1184,7 +1185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -1192,7 +1193,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -1200,7 +1201,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
@@ -1215,33 +1216,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.33203125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="56.33203125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="36.5546875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.28515625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="56.28515625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.77734375" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.77734375" style="9" customWidth="1"/>
-    <col min="12" max="16384" width="8.6640625" style="9"/>
+    <col min="9" max="9" width="9.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.7109375" style="9" customWidth="1"/>
+    <col min="12" max="16384" width="8.7109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1277,7 +1278,7 @@
       </c>
       <c r="L1" s="8"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>40</v>
       </c>
@@ -1285,7 +1286,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>121</v>
       </c>
@@ -1302,7 +1303,7 @@
       </c>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>62</v>
       </c>
@@ -1313,12 +1314,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>50</v>
@@ -1330,10 +1331,10 @@
         <v>47</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>145</v>
       </c>
@@ -1347,10 +1348,10 @@
         <v>149</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>146</v>
       </c>
@@ -1370,7 +1371,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>142</v>
       </c>
@@ -1384,7 +1385,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>41</v>
       </c>
@@ -1398,7 +1399,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>45</v>
       </c>
@@ -1418,7 +1419,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>64</v>
       </c>
@@ -1441,7 +1442,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>44</v>
       </c>
@@ -1461,7 +1462,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>42</v>
       </c>
@@ -1478,12 +1479,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>50</v>
@@ -1495,10 +1496,10 @@
         <v>47</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>155</v>
       </c>
@@ -1512,10 +1513,10 @@
         <v>149</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>156</v>
       </c>
@@ -1535,7 +1536,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>157</v>
       </c>
@@ -1549,7 +1550,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>67</v>
       </c>
@@ -1560,7 +1561,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>130</v>
       </c>
@@ -1577,7 +1578,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>129</v>
       </c>
@@ -1594,7 +1595,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>75</v>
       </c>
@@ -1605,7 +1606,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>76</v>
       </c>
@@ -1623,23 +1624,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.44140625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.42578125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
@@ -1659,7 +1660,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -1673,7 +1674,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -1687,7 +1688,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -1701,7 +1702,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -1715,7 +1716,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -1729,7 +1730,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -1743,7 +1744,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -1757,7 +1758,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -1771,7 +1772,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -1785,7 +1786,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -1799,7 +1800,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -1816,7 +1817,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>68</v>
       </c>
@@ -1833,7 +1834,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>68</v>
       </c>
@@ -1850,27 +1851,27 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>63</v>
       </c>
@@ -1881,21 +1882,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AM40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:AY7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="25.109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="17" width="8.6640625" style="12"/>
+    <col min="1" max="1" width="21.42578125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="17" width="8.7109375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>119</v>
       </c>
@@ -1921,7 +1922,7 @@
       <c r="U1" s="10"/>
       <c r="V1" s="10"/>
     </row>
-    <row r="2" spans="1:39" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" ht="180" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>40</v>
       </c>
@@ -1932,16 +1933,16 @@
         <v>62</v>
       </c>
       <c r="D2" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="F2" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="G2" s="22" t="s">
         <v>166</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>167</v>
       </c>
       <c r="H2" s="22" t="s">
         <v>82</v>
@@ -1959,16 +1960,16 @@
         <v>86</v>
       </c>
       <c r="M2" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="N2" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="O2" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="O2" s="22" t="s">
+      <c r="P2" s="22" t="s">
         <v>172</v>
-      </c>
-      <c r="P2" s="22" t="s">
-        <v>173</v>
       </c>
       <c r="Q2" s="22" t="s">
         <v>87</v>
@@ -1986,16 +1987,16 @@
         <v>89</v>
       </c>
       <c r="V2" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="W2" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="W2" s="22" t="s">
+      <c r="X2" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="X2" s="22" t="s">
+      <c r="Y2" s="22" t="s">
         <v>176</v>
-      </c>
-      <c r="Y2" s="22" t="s">
-        <v>177</v>
       </c>
       <c r="Z2" s="22" t="s">
         <v>90</v>
@@ -2013,16 +2014,16 @@
         <v>94</v>
       </c>
       <c r="AE2" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="AF2" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="AF2" s="22" t="s">
+      <c r="AG2" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="AG2" s="22" t="s">
+      <c r="AH2" s="22" t="s">
         <v>180</v>
-      </c>
-      <c r="AH2" s="22" t="s">
-        <v>181</v>
       </c>
       <c r="AI2" s="22" t="s">
         <v>95</v>
@@ -2040,7 +2041,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>66</v>
       </c>
@@ -2141,7 +2142,7 @@
       <c r="AL3" s="23"/>
       <c r="AM3" s="24"/>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>124</v>
       </c>
@@ -2226,7 +2227,7 @@
       <c r="AL4" s="26"/>
       <c r="AM4" s="26"/>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>128</v>
       </c>
@@ -2303,7 +2304,7 @@
       <c r="AL5" s="24"/>
       <c r="AM5" s="24"/>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>133</v>
       </c>
@@ -2404,9 +2405,9 @@
       <c r="AL6" s="26"/>
       <c r="AM6" s="26"/>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B7" s="23">
         <v>1</v>
@@ -2481,16 +2482,16 @@
       <c r="AL7" s="24"/>
       <c r="AM7" s="24"/>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>40</v>
       </c>
@@ -2536,7 +2537,7 @@
       <c r="O10"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>66</v>
       </c>
@@ -2559,7 +2560,7 @@
       <c r="N11" s="20"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>66</v>
       </c>
@@ -2582,7 +2583,7 @@
       <c r="N12" s="20"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>124</v>
       </c>
@@ -2605,7 +2606,7 @@
       <c r="N13" s="19"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>128</v>
       </c>
@@ -2628,7 +2629,7 @@
       <c r="N14" s="20"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>128</v>
       </c>
@@ -2650,7 +2651,7 @@
       <c r="M15" s="20"/>
       <c r="N15" s="20"/>
     </row>
-    <row r="16" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>132</v>
       </c>
@@ -2672,7 +2673,7 @@
       <c r="M16" s="19"/>
       <c r="N16" s="19"/>
     </row>
-    <row r="17" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>133</v>
       </c>
@@ -2694,7 +2695,7 @@
       <c r="M17" s="20"/>
       <c r="N17" s="20"/>
     </row>
-    <row r="18" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>133</v>
       </c>
@@ -2716,9 +2717,9 @@
       <c r="M18" s="20"/>
       <c r="N18" s="20"/>
     </row>
-    <row r="19" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B19" s="19">
         <v>-7000</v>
@@ -2738,9 +2739,9 @@
       <c r="M19" s="19"/>
       <c r="N19" s="19"/>
     </row>
-    <row r="20" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B20" s="19">
         <v>100</v>
@@ -2760,12 +2761,12 @@
       <c r="M20" s="19"/>
       <c r="N20" s="19"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
         <v>40</v>
       </c>
@@ -2788,7 +2789,7 @@
         <v>62</v>
       </c>
       <c r="L23" s="39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M23" s="39"/>
       <c r="N23" s="39"/>
@@ -2800,7 +2801,7 @@
       <c r="T23" s="39"/>
       <c r="U23" s="39"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>66</v>
       </c>
@@ -2827,7 +2828,7 @@
       <c r="T24" s="39"/>
       <c r="U24" s="39"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>124</v>
       </c>
@@ -2856,7 +2857,7 @@
       <c r="T25" s="39"/>
       <c r="U25" s="39"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>128</v>
       </c>
@@ -2883,7 +2884,7 @@
       <c r="T26" s="39"/>
       <c r="U26" s="39"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
         <v>132</v>
       </c>
@@ -2910,7 +2911,7 @@
       <c r="T27" s="39"/>
       <c r="U27" s="39"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>133</v>
       </c>
@@ -2937,9 +2938,9 @@
       <c r="T28" s="39"/>
       <c r="U28" s="39"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B29" s="34"/>
       <c r="C29" s="19"/>
@@ -2964,7 +2965,7 @@
       <c r="T29" s="39"/>
       <c r="U29" s="39"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
       <c r="B30" s="17"/>
       <c r="C30" s="16"/>
@@ -2983,7 +2984,7 @@
       <c r="T30" s="39"/>
       <c r="U30" s="39"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L31" s="39"/>
       <c r="M31" s="39"/>
       <c r="N31" s="39"/>
@@ -2995,7 +2996,7 @@
       <c r="T31" s="39"/>
       <c r="U31" s="39"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>135</v>
       </c>
@@ -3010,7 +3011,7 @@
       <c r="T32" s="39"/>
       <c r="U32" s="39"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="35" t="s">
         <v>40</v>
       </c>
@@ -3030,7 +3031,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
         <v>133</v>
       </c>
@@ -3042,7 +3043,7 @@
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>133</v>
       </c>
@@ -3054,19 +3055,19 @@
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40"/>
     </row>
   </sheetData>
